--- a/aipg/test.xlsx
+++ b/aipg/test.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,9 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>This is neat!</t>
+  </si>
+  <si>
+    <t>hidden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -57,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -65,12 +74,143 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -351,17 +491,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="8"/>
+      <c r="B3" s="10" t="s">
         <v>0</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.15">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.15">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.15">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.15">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.15">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.15">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.15">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/aipg/test.xlsx
+++ b/aipg/test.xlsx
@@ -25,16 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>This is neat!</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>hidden</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -42,7 +35,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,16 +50,41 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -120,24 +138,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -170,12 +170,53 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -187,9 +228,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -197,20 +236,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -494,157 +574,295 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B8" sqref="B8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
+      <c r="A1" s="21"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="6"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="7"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
-      <c r="B3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="9"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="23"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5">
+        <v>3</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="7"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="B12" s="3">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3">
+        <f>E8</f>
+        <v>2</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3">
+        <v>9</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F15" t="s">
-        <v>2</v>
-      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.15">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="17"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="2"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="2"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="2"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F6"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D21:F22"/>
+    <mergeCell ref="G17:G22"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -663,7 +881,7 @@
   <sheetData>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/aipg/test.xlsx
+++ b/aipg/test.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10320"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,9 +26,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>hidden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>aaa</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ddd</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssasd
+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/9/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,ssss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfsfdsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gfdgfd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hghgf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1 eewewew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cccccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2ddsdsd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdsd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,ssssssssssssssssss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -35,7 +113,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +136,15 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -84,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -232,65 +322,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -573,79 +700,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="21"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+    <row r="1" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="26">
+        <v>43710</v>
+      </c>
+      <c r="D1" s="11">
+        <v>1234565</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="24"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="27">
+        <v>6542323</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="23"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="15"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="23"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="15"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -656,84 +800,84 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="5">
+      <c r="B8" s="14">
         <v>1</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5">
+      <c r="C8" s="20"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="14">
         <v>2</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5">
+      <c r="F8" s="15"/>
+      <c r="G8" s="14">
         <v>3</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9">
+      <c r="H8" s="15"/>
+      <c r="I8" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="7"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="10"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="3">
+      <c r="B10" s="23">
         <v>5</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="3">
+      <c r="B11" s="23">
         <v>6</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="3">
+      <c r="B12" s="23">
         <v>7</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="3">
+      <c r="E12" s="23">
         <f>E8</f>
         <v>2</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="3">
+      <c r="B13" s="23">
         <v>8</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3">
+      <c r="E13" s="23"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="23">
         <v>9</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -749,75 +893,75 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="14"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="17"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="13"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="13"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="10"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
-      <c r="C20" s="15"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="15"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="15"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -827,28 +971,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:F6"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="B8:D9"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D21:F22"/>
-    <mergeCell ref="G17:G22"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="I17:I19"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="E10:F10"/>
@@ -862,6 +984,28 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D21:F22"/>
+    <mergeCell ref="G17:G22"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F6"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -870,6 +1014,523 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="30"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="31"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="31"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="30"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="30"/>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="31"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="30"/>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="31"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="30"/>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="30"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="30"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="30"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="31"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="30"/>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="31"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="30"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="31"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="30"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="31"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="30"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="31"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="30"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="31"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="31"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="30"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="31"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="30"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="31"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="30"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="31"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="30"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="31"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="30"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="31"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="30"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="31"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="30"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="31"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="30"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="31"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="30"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="31"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="30"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="31"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="30"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="31"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" s="30"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="31"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" s="30"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="31"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" s="30"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="31"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33" s="30"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="31"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34" s="30"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="31"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" s="30"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="31"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" s="30"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="31"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37" s="32"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="34"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5"/>
   <sheetViews>

--- a/aipg/test.xlsx
+++ b/aipg/test.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10320" activeTab="1"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10320" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>hidden</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,13 +108,17 @@
     <t>2,ssssssssssssssssss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>f22222222222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -148,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +177,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -353,77 +363,82 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC66FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -701,7 +716,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -710,86 +725,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="5"/>
-      <c r="C1" s="26">
+      <c r="C1" s="23">
         <v>43710</v>
       </c>
-      <c r="D1" s="11">
+      <c r="D1" s="19">
         <v>1234565</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="24" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="11"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="13"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="27">
+      <c r="C4" s="9">
         <v>6542323</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="24"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -800,84 +815,84 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="14">
+      <c r="B8" s="25">
         <v>1</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="14">
+      <c r="C8" s="31"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="25">
         <v>2</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="14">
+      <c r="F8" s="26"/>
+      <c r="G8" s="25">
         <v>3</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="18">
+      <c r="H8" s="26"/>
+      <c r="I8" s="29">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="16"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="19"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="23">
+      <c r="B10" s="34">
         <v>5</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="12"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="23">
+      <c r="B11" s="34">
         <v>6</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="12"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="23">
+      <c r="B12" s="34">
         <v>7</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="23">
+      <c r="E12" s="34">
         <f>E8</f>
         <v>2</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="12"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="23">
+      <c r="B13" s="34">
         <v>8</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="23">
+      <c r="E13" s="34"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="34">
         <v>9</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -894,74 +909,74 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" s="4"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="22"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="10"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="10"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="17"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
-      <c r="C20" s="11"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1015,15 +1030,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
@@ -1065,7 +1080,7 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="30"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1075,10 +1090,10 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="31"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1"/>
@@ -1090,10 +1105,10 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="31"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1103,14 +1118,14 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="31"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="30"/>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1118,14 +1133,14 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="31"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="30"/>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1133,27 +1148,27 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="31"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="30"/>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="31"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="30"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1163,25 +1178,25 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="31"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="30"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="31"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="30"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1191,14 +1206,14 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="31"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="30"/>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1206,10 +1221,10 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="31"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1219,25 +1234,25 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="31"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="31"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1247,11 +1262,13 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="31"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1260,12 +1277,10 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="31"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="30" t="s">
-        <v>13</v>
-      </c>
+      <c r="A18" s="10"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1275,10 +1290,12 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="31"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="30"/>
+      <c r="A19" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1288,10 +1305,10 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="31"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="30"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1301,10 +1318,10 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="31"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="30"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1314,10 +1331,10 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="31"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="30"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1327,10 +1344,10 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="31"/>
+      <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="30"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1340,10 +1357,10 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="31"/>
+      <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="30"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1353,10 +1370,10 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="31"/>
+      <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="30"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1366,10 +1383,10 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="31"/>
+      <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="30"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1379,10 +1396,10 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="31"/>
+      <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="30"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1392,10 +1409,10 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="31"/>
+      <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="30"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1405,10 +1422,10 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="31"/>
+      <c r="K28" s="11"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" s="30"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1418,10 +1435,10 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="31"/>
+      <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="30"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1431,10 +1448,10 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="31"/>
+      <c r="K30" s="11"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31" s="30"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1444,10 +1461,10 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="31"/>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="30"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1457,10 +1474,10 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="31"/>
+      <c r="K32" s="11"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="30"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1470,10 +1487,10 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="31"/>
+      <c r="K33" s="11"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="30"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1483,10 +1500,10 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="31"/>
+      <c r="K34" s="11"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="30"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1496,10 +1513,10 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="31"/>
+      <c r="K35" s="11"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="30"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1509,20 +1526,33 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="31"/>
+      <c r="K36" s="11"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="32"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="34"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/aipg/test.xlsx
+++ b/aipg/test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>hidden</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,50 @@
   </si>
   <si>
     <t>f22222222222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +227,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -354,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -374,6 +436,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -729,48 +794,48 @@
         <v>2</v>
       </c>
       <c r="B1" s="5"/>
-      <c r="C1" s="23">
+      <c r="C1" s="26">
         <v>43710</v>
       </c>
-      <c r="D1" s="19">
+      <c r="D1" s="22">
         <v>1234565</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="18" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="19"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="24"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
@@ -780,8 +845,8 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -789,10 +854,10 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="19"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -801,10 +866,10 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="19"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -815,84 +880,84 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="25">
+      <c r="B8" s="28">
         <v>1</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="25">
+      <c r="C8" s="34"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="28">
         <v>2</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="25">
+      <c r="F8" s="29"/>
+      <c r="G8" s="28">
         <v>3</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="29">
+      <c r="H8" s="29"/>
+      <c r="I8" s="32">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="27"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="33"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="34">
+      <c r="B10" s="37">
         <v>5</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="22"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="34">
+      <c r="B11" s="37">
         <v>6</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="22"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="34">
+      <c r="B12" s="37">
         <v>7</v>
       </c>
-      <c r="C12" s="22"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="34">
+      <c r="E12" s="37">
         <f>E8</f>
         <v>2</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="22"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="34">
+      <c r="B13" s="37">
         <v>8</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="34">
+      <c r="E13" s="37"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="37">
         <v>9</v>
       </c>
-      <c r="H13" s="22"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -909,74 +974,74 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" s="4"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="33"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="17"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="17"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
-      <c r="C20" s="19"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="19"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="19"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="22"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1030,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1253,69 +1318,93 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="B16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="11"/>
@@ -1348,7 +1437,9 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1373,7 +1464,9 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
+      <c r="A25" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1413,65 +1506,93 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="B28" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="11"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="B32" s="2">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="11"/>
@@ -1542,21 +1663,100 @@
       <c r="K37" s="11"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="14"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" s="10"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" s="10"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" s="10"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="11"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" s="10"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="11"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" s="10"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="11"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/aipg/test.xlsx
+++ b/aipg/test.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\npm-packages\aipg\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10320" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="20730" windowHeight="10320" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +35,7 @@
         <strike/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -51,7 +46,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -168,13 +163,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -182,7 +177,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -190,7 +185,7 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -442,55 +437,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -770,7 +765,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -794,30 +789,30 @@
         <v>2</v>
       </c>
       <c r="B1" s="5"/>
-      <c r="C1" s="26">
+      <c r="C1" s="33">
         <v>43710</v>
       </c>
-      <c r="D1" s="22">
+      <c r="D1" s="31">
         <v>1234565</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="21" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="22"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="27"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="31"/>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
     </row>
@@ -826,14 +821,14 @@
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="31"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
     </row>
@@ -845,8 +840,8 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -854,10 +849,10 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="25"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
-      <c r="F5" s="22"/>
+      <c r="F5" s="31"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -866,10 +861,10 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="25"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="22"/>
+      <c r="F6" s="31"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -880,84 +875,84 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="28">
+      <c r="B8" s="23">
         <v>1</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="28">
+      <c r="C8" s="29"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="23">
         <v>2</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28">
+      <c r="F8" s="24"/>
+      <c r="G8" s="23">
         <v>3</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="32">
+      <c r="H8" s="24"/>
+      <c r="I8" s="27">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="30"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="33"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="37">
+      <c r="B10" s="21">
         <v>5</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="25"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="37">
+      <c r="B11" s="21">
         <v>6</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="25"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="37">
+      <c r="B12" s="21">
         <v>7</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="37">
+      <c r="E12" s="21">
         <f>E8</f>
         <v>2</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="25"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="37">
+      <c r="B13" s="21">
         <v>8</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="37">
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="21">
         <v>9</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -974,66 +969,66 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" s="4"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="36"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="20"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
-      <c r="C19" s="22"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
-      <c r="C20" s="22"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
-      <c r="C21" s="22"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="22"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
-      <c r="C22" s="22"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="22"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1051,6 +1046,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F6"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D21:F22"/>
+    <mergeCell ref="G17:G22"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="I17:I19"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="E10:F10"/>
@@ -1064,28 +1081,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="B8:D9"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D21:F22"/>
-    <mergeCell ref="G17:G22"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:F6"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1097,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
